--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>Название поля</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Размер</t>
+  </si>
+  <si>
+    <t>df_delta_date</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -397,6 +400,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -680,7 +685,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,19 +1114,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -1129,69 +1134,151 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="7">
         <v>5578226</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2">
+        <v>28948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="7">
         <v>2218328</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <v>10428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="7">
         <v>1950766</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="7">
         <v>1485674</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>22034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="7">
         <v>10428</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6">
+        <v>13672</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>44927</v>
+      </c>
+      <c r="B10">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>44958</v>
+      </c>
+      <c r="B11">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>44986</v>
+      </c>
+      <c r="B12">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>45017</v>
+      </c>
+      <c r="B13">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>45047</v>
+      </c>
+      <c r="B14">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>45078</v>
+      </c>
+      <c r="B15">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>45108</v>
+      </c>
+      <c r="B16">
+        <v>1348</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B6">
@@ -1200,6 +1287,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:B6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1212,5 +1311,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
   <si>
     <t>Название поля</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>df_delta_date</t>
+  </si>
+  <si>
+    <t>sales_clients</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1214,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="7">
+        <v>9316</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1286,7 +1294,7 @@
       <sortCondition descending="1" ref="B1:B6"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B2:B6">
+  <conditionalFormatting sqref="B2:B7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="5205" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="5205" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$B$6</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="124">
   <si>
     <t>Название поля</t>
   </si>
@@ -328,6 +329,81 @@
   </si>
   <si>
     <t>sales_clients</t>
+  </si>
+  <si>
+    <t>final_data_predict</t>
+  </si>
+  <si>
+    <t>final_data_sales</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Очистка от дубликатов</t>
+  </si>
+  <si>
+    <t>Очистка от NaN</t>
+  </si>
+  <si>
+    <t>non-null</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>datetime64[ns]</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>sale_count</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>workersrange_is_known</t>
+  </si>
+  <si>
+    <t>workersrange_is_less_then_5</t>
+  </si>
+  <si>
+    <t>workersrange_is_more_then_5</t>
+  </si>
+  <si>
+    <t>tech_name_x</t>
+  </si>
+  <si>
+    <t>tech_name_y</t>
+  </si>
+  <si>
+    <t>ETTH</t>
+  </si>
+  <si>
+    <t>FTTx</t>
+  </si>
+  <si>
+    <t>PON</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>xDSL</t>
+  </si>
+  <si>
+    <t>БШПД</t>
+  </si>
+  <si>
+    <t>Оптика</t>
+  </si>
+  <si>
+    <t>delta_date</t>
   </si>
 </sst>
 </file>
@@ -409,7 +485,18 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1119,14 +1206,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,7 +1239,7 @@
       <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>28948</v>
       </c>
     </row>
@@ -1164,7 +1253,7 @@
       <c r="E3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>10428</v>
       </c>
     </row>
@@ -1189,7 +1278,7 @@
       <c r="E5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>22034</v>
       </c>
     </row>
@@ -1203,7 +1292,7 @@
       <c r="E6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>13672</v>
       </c>
       <c r="G6" t="s">
@@ -1231,6 +1320,12 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -1239,6 +1334,15 @@
       <c r="B10">
         <v>1172</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20138</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2471446</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -1247,6 +1351,15 @@
       <c r="B11">
         <v>1566</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="7">
+        <v>9316</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1950766</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -1254,6 +1367,15 @@
       </c>
       <c r="B12">
         <v>1842</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="7">
+        <v>9164</v>
+      </c>
+      <c r="G12" s="7">
+        <v>379586</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1321,4 +1443,986 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>20138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>20138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>20138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>20138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>20112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>20112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>20112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>20112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>20138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>20138</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>20138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>20138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <v>20138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>20138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>19922</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>20138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>20138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19">
+        <v>20138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>19992</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <v>20138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22">
+        <v>20138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23">
+        <v>20138</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24">
+        <v>20138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25">
+        <v>20138</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>18930</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>18930</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>18930</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29">
+        <v>13080</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>17204</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>17204</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32">
+        <v>18930</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33">
+        <v>18930</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34">
+        <v>18930</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35">
+        <v>18930</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36">
+        <v>18930</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37">
+        <v>18930</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38">
+        <v>18930</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39">
+        <v>20138</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576 I1:I1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>